--- a/Assets/Resources/Proto/Proto.xlsx
+++ b/Assets/Resources/Proto/Proto.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="17235" windowHeight="9630" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="17235" windowHeight="9630"/>
   </bookViews>
   <sheets>
-    <sheet name="Aircraft" sheetId="1" r:id="rId1"/>
+    <sheet name="Creature" sheetId="1" r:id="rId1"/>
     <sheet name="Gun" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
@@ -18,15 +18,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
   <si>
     <t>HP</t>
   </si>
   <si>
-    <t>P01</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>ID</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -129,14 +125,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>P06</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>P05</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>1_1</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -145,14 +133,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>2_1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>0;1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>20003</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -174,6 +154,14 @@
   </si>
   <si>
     <t>Penetrate</t>
+  </si>
+  <si>
+    <t>M01</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>N01</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1144,10 +1132,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1160,40 +1148,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -1201,7 +1189,7 @@
         <v>10001</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="C2">
         <v>1000</v>
@@ -1225,13 +1213,13 @@
         <v>20</v>
       </c>
       <c r="J2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
@@ -1239,7 +1227,7 @@
         <v>10002</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C3">
         <v>1000</v>
@@ -1263,51 +1251,13 @@
         <v>20</v>
       </c>
       <c r="J3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>10003</v>
-      </c>
-      <c r="B4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4">
-        <v>500</v>
-      </c>
-      <c r="D4">
-        <v>100</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>200</v>
-      </c>
-      <c r="G4">
-        <v>50</v>
-      </c>
-      <c r="H4">
-        <v>100</v>
-      </c>
-      <c r="I4">
-        <v>20</v>
-      </c>
-      <c r="J4" t="s">
-        <v>37</v>
-      </c>
-      <c r="K4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1321,7 +1271,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
@@ -1337,40 +1287,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
       <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>16</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>19</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>20</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>21</v>
       </c>
-      <c r="K1" t="s">
-        <v>22</v>
-      </c>
       <c r="L1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -1378,10 +1328,10 @@
         <v>20001</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2">
         <v>10</v>
@@ -1393,10 +1343,10 @@
         <v>400</v>
       </c>
       <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" t="s">
         <v>26</v>
-      </c>
-      <c r="H2" t="s">
-        <v>27</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -1405,7 +1355,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
@@ -1413,10 +1363,10 @@
         <v>20002</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3">
         <v>10</v>
@@ -1428,10 +1378,10 @@
         <v>400</v>
       </c>
       <c r="G3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" t="s">
         <v>26</v>
-      </c>
-      <c r="H3" t="s">
-        <v>27</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1440,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
@@ -1448,10 +1398,10 @@
         <v>20003</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D4">
         <v>20</v>
@@ -1463,10 +1413,10 @@
         <v>800</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="I4">
         <v>4</v>
@@ -1475,7 +1425,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
